--- a/Transformer/result/wlp_transformer/daqingyoutian_GRU_DEN_result.xlsx
+++ b/Transformer/result/wlp_transformer/daqingyoutian_GRU_DEN_result.xlsx
@@ -455,7 +455,7 @@
         <v>1104.55</v>
       </c>
       <c r="B2" t="n">
-        <v>2.278454065322876</v>
+        <v>2.251450061798096</v>
       </c>
       <c r="C2" t="n">
         <v>2.263</v>
@@ -466,7 +466,7 @@
         <v>1104.6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.279124736785889</v>
+        <v>2.248594760894775</v>
       </c>
       <c r="C3" t="n">
         <v>2.256</v>
@@ -477,7 +477,7 @@
         <v>1104.65</v>
       </c>
       <c r="B4" t="n">
-        <v>2.276139736175537</v>
+        <v>2.243292093276978</v>
       </c>
       <c r="C4" t="n">
         <v>2.253</v>
@@ -488,7 +488,7 @@
         <v>1104.7</v>
       </c>
       <c r="B5" t="n">
-        <v>2.273857593536377</v>
+        <v>2.238366603851318</v>
       </c>
       <c r="C5" t="n">
         <v>2.26</v>
@@ -499,7 +499,7 @@
         <v>1104.75</v>
       </c>
       <c r="B6" t="n">
-        <v>2.271297454833984</v>
+        <v>2.232879161834717</v>
       </c>
       <c r="C6" t="n">
         <v>2.271</v>
@@ -510,7 +510,7 @@
         <v>1104.8</v>
       </c>
       <c r="B7" t="n">
-        <v>2.273589134216309</v>
+        <v>2.230782032012939</v>
       </c>
       <c r="C7" t="n">
         <v>2.268</v>
@@ -521,7 +521,7 @@
         <v>1104.85</v>
       </c>
       <c r="B8" t="n">
-        <v>2.28106427192688</v>
+        <v>2.233190536499023</v>
       </c>
       <c r="C8" t="n">
         <v>2.259</v>
@@ -532,7 +532,7 @@
         <v>1104.9</v>
       </c>
       <c r="B9" t="n">
-        <v>2.279883623123169</v>
+        <v>2.231037139892578</v>
       </c>
       <c r="C9" t="n">
         <v>2.235</v>
@@ -543,7 +543,7 @@
         <v>1104.95</v>
       </c>
       <c r="B10" t="n">
-        <v>2.266495227813721</v>
+        <v>2.220349788665771</v>
       </c>
       <c r="C10" t="n">
         <v>2.21</v>
@@ -554,7 +554,7 @@
         <v>1105</v>
       </c>
       <c r="B11" t="n">
-        <v>2.237959146499634</v>
+        <v>2.198151588439941</v>
       </c>
       <c r="C11" t="n">
         <v>2.178</v>
@@ -565,7 +565,7 @@
         <v>1105.05</v>
       </c>
       <c r="B12" t="n">
-        <v>2.205369234085083</v>
+        <v>2.171758651733398</v>
       </c>
       <c r="C12" t="n">
         <v>2.142</v>
@@ -576,7 +576,7 @@
         <v>1105.1</v>
       </c>
       <c r="B13" t="n">
-        <v>2.180211782455444</v>
+        <v>2.14821457862854</v>
       </c>
       <c r="C13" t="n">
         <v>2.108</v>
@@ -587,7 +587,7 @@
         <v>1105.15</v>
       </c>
       <c r="B14" t="n">
-        <v>2.163448810577393</v>
+        <v>2.12865686416626</v>
       </c>
       <c r="C14" t="n">
         <v>2.086</v>
@@ -598,7 +598,7 @@
         <v>1105.2</v>
       </c>
       <c r="B15" t="n">
-        <v>2.143714666366577</v>
+        <v>2.10904335975647</v>
       </c>
       <c r="C15" t="n">
         <v>2.072</v>
@@ -609,7 +609,7 @@
         <v>1105.25</v>
       </c>
       <c r="B16" t="n">
-        <v>2.137750148773193</v>
+        <v>2.091334342956543</v>
       </c>
       <c r="C16" t="n">
         <v>2.07</v>
@@ -620,7 +620,7 @@
         <v>1105.3</v>
       </c>
       <c r="B17" t="n">
-        <v>2.135833978652954</v>
+        <v>2.07982349395752</v>
       </c>
       <c r="C17" t="n">
         <v>2.065</v>
@@ -631,7 +631,7 @@
         <v>1105.35</v>
       </c>
       <c r="B18" t="n">
-        <v>2.131962299346924</v>
+        <v>2.071962594985962</v>
       </c>
       <c r="C18" t="n">
         <v>2.06</v>
@@ -642,7 +642,7 @@
         <v>1105.4</v>
       </c>
       <c r="B19" t="n">
-        <v>2.125746726989746</v>
+        <v>2.067101955413818</v>
       </c>
       <c r="C19" t="n">
         <v>2.058</v>
@@ -653,7 +653,7 @@
         <v>1105.45</v>
       </c>
       <c r="B20" t="n">
-        <v>2.122409582138062</v>
+        <v>2.067196846008301</v>
       </c>
       <c r="C20" t="n">
         <v>2.063</v>
@@ -664,7 +664,7 @@
         <v>1105.5</v>
       </c>
       <c r="B21" t="n">
-        <v>2.118833780288696</v>
+        <v>2.068990468978882</v>
       </c>
       <c r="C21" t="n">
         <v>2.078</v>
@@ -675,7 +675,7 @@
         <v>1105.55</v>
       </c>
       <c r="B22" t="n">
-        <v>2.117100954055786</v>
+        <v>2.072923183441162</v>
       </c>
       <c r="C22" t="n">
         <v>2.096</v>
@@ -686,7 +686,7 @@
         <v>1105.6</v>
       </c>
       <c r="B23" t="n">
-        <v>2.117635488510132</v>
+        <v>2.07890248298645</v>
       </c>
       <c r="C23" t="n">
         <v>2.106</v>
@@ -697,7 +697,7 @@
         <v>1105.65</v>
       </c>
       <c r="B24" t="n">
-        <v>2.120419979095459</v>
+        <v>2.087355852127075</v>
       </c>
       <c r="C24" t="n">
         <v>2.11</v>
@@ -708,7 +708,7 @@
         <v>1105.7</v>
       </c>
       <c r="B25" t="n">
-        <v>2.12710165977478</v>
+        <v>2.099113464355469</v>
       </c>
       <c r="C25" t="n">
         <v>2.105</v>
@@ -719,7 +719,7 @@
         <v>1105.75</v>
       </c>
       <c r="B26" t="n">
-        <v>2.134077787399292</v>
+        <v>2.111109018325806</v>
       </c>
       <c r="C26" t="n">
         <v>2.095</v>
@@ -730,7 +730,7 @@
         <v>1105.8</v>
       </c>
       <c r="B27" t="n">
-        <v>2.133554220199585</v>
+        <v>2.117097139358521</v>
       </c>
       <c r="C27" t="n">
         <v>2.094</v>
@@ -741,7 +741,7 @@
         <v>1105.85</v>
       </c>
       <c r="B28" t="n">
-        <v>2.134113073348999</v>
+        <v>2.12012505531311</v>
       </c>
       <c r="C28" t="n">
         <v>2.099</v>
@@ -752,7 +752,7 @@
         <v>1105.9</v>
       </c>
       <c r="B29" t="n">
-        <v>2.135752439498901</v>
+        <v>2.121006011962891</v>
       </c>
       <c r="C29" t="n">
         <v>2.107</v>
@@ -763,7 +763,7 @@
         <v>1105.95</v>
       </c>
       <c r="B30" t="n">
-        <v>2.145021438598633</v>
+        <v>2.125341892242432</v>
       </c>
       <c r="C30" t="n">
         <v>2.113</v>
@@ -774,7 +774,7 @@
         <v>1106</v>
       </c>
       <c r="B31" t="n">
-        <v>2.155257701873779</v>
+        <v>2.131702423095703</v>
       </c>
       <c r="C31" t="n">
         <v>2.108</v>
@@ -785,7 +785,7 @@
         <v>1106.05</v>
       </c>
       <c r="B32" t="n">
-        <v>2.150250434875488</v>
+        <v>2.12971830368042</v>
       </c>
       <c r="C32" t="n">
         <v>2.106</v>
@@ -796,7 +796,7 @@
         <v>1106.1</v>
       </c>
       <c r="B33" t="n">
-        <v>2.134500503540039</v>
+        <v>2.118975162506104</v>
       </c>
       <c r="C33" t="n">
         <v>2.111</v>
@@ -807,7 +807,7 @@
         <v>1106.15</v>
       </c>
       <c r="B34" t="n">
-        <v>2.125056743621826</v>
+        <v>2.108863115310669</v>
       </c>
       <c r="C34" t="n">
         <v>2.136</v>
@@ -818,7 +818,7 @@
         <v>1106.2</v>
       </c>
       <c r="B35" t="n">
-        <v>2.140347719192505</v>
+        <v>2.111163854598999</v>
       </c>
       <c r="C35" t="n">
         <v>2.174</v>
@@ -829,7 +829,7 @@
         <v>1106.25</v>
       </c>
       <c r="B36" t="n">
-        <v>2.171110868453979</v>
+        <v>2.130970001220703</v>
       </c>
       <c r="C36" t="n">
         <v>2.216</v>
@@ -840,7 +840,7 @@
         <v>1106.3</v>
       </c>
       <c r="B37" t="n">
-        <v>2.211800098419189</v>
+        <v>2.162658929824829</v>
       </c>
       <c r="C37" t="n">
         <v>2.253</v>
@@ -851,7 +851,7 @@
         <v>1106.35</v>
       </c>
       <c r="B38" t="n">
-        <v>2.236982345581055</v>
+        <v>2.188649892807007</v>
       </c>
       <c r="C38" t="n">
         <v>2.273</v>
@@ -862,7 +862,7 @@
         <v>1106.4</v>
       </c>
       <c r="B39" t="n">
-        <v>2.255362749099731</v>
+        <v>2.208250522613525</v>
       </c>
       <c r="C39" t="n">
         <v>2.272</v>
@@ -873,7 +873,7 @@
         <v>1106.45</v>
       </c>
       <c r="B40" t="n">
-        <v>2.266118288040161</v>
+        <v>2.221783638000488</v>
       </c>
       <c r="C40" t="n">
         <v>2.263</v>
@@ -884,7 +884,7 @@
         <v>1106.5</v>
       </c>
       <c r="B41" t="n">
-        <v>2.270519018173218</v>
+        <v>2.23075532913208</v>
       </c>
       <c r="C41" t="n">
         <v>2.241</v>
@@ -895,7 +895,7 @@
         <v>1106.55</v>
       </c>
       <c r="B42" t="n">
-        <v>2.273788452148438</v>
+        <v>2.23827600479126</v>
       </c>
       <c r="C42" t="n">
         <v>2.233</v>
@@ -906,7 +906,7 @@
         <v>1106.6</v>
       </c>
       <c r="B43" t="n">
-        <v>2.270677328109741</v>
+        <v>2.242252111434937</v>
       </c>
       <c r="C43" t="n">
         <v>2.225</v>
@@ -917,7 +917,7 @@
         <v>1106.65</v>
       </c>
       <c r="B44" t="n">
-        <v>2.271833419799805</v>
+        <v>2.24775505065918</v>
       </c>
       <c r="C44" t="n">
         <v>2.226</v>
@@ -928,7 +928,7 @@
         <v>1106.7</v>
       </c>
       <c r="B45" t="n">
-        <v>2.274223327636719</v>
+        <v>2.25390625</v>
       </c>
       <c r="C45" t="n">
         <v>2.223</v>
@@ -939,7 +939,7 @@
         <v>1106.75</v>
       </c>
       <c r="B46" t="n">
-        <v>2.28079628944397</v>
+        <v>2.262677431106567</v>
       </c>
       <c r="C46" t="n">
         <v>2.225</v>
@@ -950,7 +950,7 @@
         <v>1106.8</v>
       </c>
       <c r="B47" t="n">
-        <v>2.284113645553589</v>
+        <v>2.269648790359497</v>
       </c>
       <c r="C47" t="n">
         <v>2.226</v>
@@ -961,7 +961,7 @@
         <v>1106.85</v>
       </c>
       <c r="B48" t="n">
-        <v>2.281912803649902</v>
+        <v>2.272350788116455</v>
       </c>
       <c r="C48" t="n">
         <v>2.233</v>
@@ -972,7 +972,7 @@
         <v>1106.9</v>
       </c>
       <c r="B49" t="n">
-        <v>2.270975112915039</v>
+        <v>2.268463373184204</v>
       </c>
       <c r="C49" t="n">
         <v>2.236</v>
@@ -983,7 +983,7 @@
         <v>1106.95</v>
       </c>
       <c r="B50" t="n">
-        <v>2.266131401062012</v>
+        <v>2.265353202819824</v>
       </c>
       <c r="C50" t="n">
         <v>2.237</v>
@@ -994,7 +994,7 @@
         <v>1107</v>
       </c>
       <c r="B51" t="n">
-        <v>2.265114307403564</v>
+        <v>2.26387882232666</v>
       </c>
       <c r="C51" t="n">
         <v>2.236</v>
@@ -1005,7 +1005,7 @@
         <v>1107.05</v>
       </c>
       <c r="B52" t="n">
-        <v>2.261156558990479</v>
+        <v>2.260648488998413</v>
       </c>
       <c r="C52" t="n">
         <v>2.23</v>
@@ -1016,7 +1016,7 @@
         <v>1107.1</v>
       </c>
       <c r="B53" t="n">
-        <v>2.255260229110718</v>
+        <v>2.255942344665527</v>
       </c>
       <c r="C53" t="n">
         <v>2.218</v>
@@ -1027,7 +1027,7 @@
         <v>1107.15</v>
       </c>
       <c r="B54" t="n">
-        <v>2.253401279449463</v>
+        <v>2.252887964248657</v>
       </c>
       <c r="C54" t="n">
         <v>2.196</v>
@@ -1038,7 +1038,7 @@
         <v>1107.2</v>
       </c>
       <c r="B55" t="n">
-        <v>2.25181770324707</v>
+        <v>2.249162673950195</v>
       </c>
       <c r="C55" t="n">
         <v>2.176</v>
@@ -1049,7 +1049,7 @@
         <v>1107.25</v>
       </c>
       <c r="B56" t="n">
-        <v>2.250332117080688</v>
+        <v>2.244718551635742</v>
       </c>
       <c r="C56" t="n">
         <v>2.158</v>
@@ -1060,7 +1060,7 @@
         <v>1107.3</v>
       </c>
       <c r="B57" t="n">
-        <v>2.243541240692139</v>
+        <v>2.236601591110229</v>
       </c>
       <c r="C57" t="n">
         <v>2.158</v>
@@ -1071,7 +1071,7 @@
         <v>1107.35</v>
       </c>
       <c r="B58" t="n">
-        <v>2.241938591003418</v>
+        <v>2.230756759643555</v>
       </c>
       <c r="C58" t="n">
         <v>2.165</v>
@@ -1082,7 +1082,7 @@
         <v>1107.4</v>
       </c>
       <c r="B59" t="n">
-        <v>2.246573925018311</v>
+        <v>2.22840404510498</v>
       </c>
       <c r="C59" t="n">
         <v>2.178</v>
@@ -1093,7 +1093,7 @@
         <v>1107.45</v>
       </c>
       <c r="B60" t="n">
-        <v>2.251707077026367</v>
+        <v>2.226223707199097</v>
       </c>
       <c r="C60" t="n">
         <v>2.192</v>
@@ -1104,7 +1104,7 @@
         <v>1107.5</v>
       </c>
       <c r="B61" t="n">
-        <v>2.252317428588867</v>
+        <v>2.221556901931763</v>
       </c>
       <c r="C61" t="n">
         <v>2.195</v>
@@ -1115,7 +1115,7 @@
         <v>1107.55</v>
       </c>
       <c r="B62" t="n">
-        <v>2.259564399719238</v>
+        <v>2.221025228500366</v>
       </c>
       <c r="C62" t="n">
         <v>2.203</v>
@@ -1126,7 +1126,7 @@
         <v>1107.6</v>
       </c>
       <c r="B63" t="n">
-        <v>2.274415493011475</v>
+        <v>2.225487232208252</v>
       </c>
       <c r="C63" t="n">
         <v>2.204</v>
@@ -1137,7 +1137,7 @@
         <v>1107.65</v>
       </c>
       <c r="B64" t="n">
-        <v>2.282094478607178</v>
+        <v>2.225673675537109</v>
       </c>
       <c r="C64" t="n">
         <v>2.21</v>
@@ -1148,7 +1148,7 @@
         <v>1107.7</v>
       </c>
       <c r="B65" t="n">
-        <v>2.281505823135376</v>
+        <v>2.220439672470093</v>
       </c>
       <c r="C65" t="n">
         <v>2.221</v>
@@ -1159,7 +1159,7 @@
         <v>1107.75</v>
       </c>
       <c r="B66" t="n">
-        <v>2.27986216545105</v>
+        <v>2.214606285095215</v>
       </c>
       <c r="C66" t="n">
         <v>2.231</v>
@@ -1170,7 +1170,7 @@
         <v>1107.8</v>
       </c>
       <c r="B67" t="n">
-        <v>2.280377149581909</v>
+        <v>2.210399389266968</v>
       </c>
       <c r="C67" t="n">
         <v>2.239</v>
@@ -1181,7 +1181,7 @@
         <v>1107.85</v>
       </c>
       <c r="B68" t="n">
-        <v>2.28109073638916</v>
+        <v>2.206821203231812</v>
       </c>
       <c r="C68" t="n">
         <v>2.234</v>
@@ -1192,7 +1192,7 @@
         <v>1107.9</v>
       </c>
       <c r="B69" t="n">
-        <v>2.276435613632202</v>
+        <v>2.200567722320557</v>
       </c>
       <c r="C69" t="n">
         <v>2.226</v>
@@ -1203,7 +1203,7 @@
         <v>1107.95</v>
       </c>
       <c r="B70" t="n">
-        <v>2.281976938247681</v>
+        <v>2.202009677886963</v>
       </c>
       <c r="C70" t="n">
         <v>2.214</v>
@@ -1214,7 +1214,7 @@
         <v>1108</v>
       </c>
       <c r="B71" t="n">
-        <v>2.296885967254639</v>
+        <v>2.211162090301514</v>
       </c>
       <c r="C71" t="n">
         <v>2.211</v>
@@ -1225,7 +1225,7 @@
         <v>1108.05</v>
       </c>
       <c r="B72" t="n">
-        <v>2.291506052017212</v>
+        <v>2.207595109939575</v>
       </c>
       <c r="C72" t="n">
         <v>2.219</v>
@@ -1236,7 +1236,7 @@
         <v>1108.1</v>
       </c>
       <c r="B73" t="n">
-        <v>2.281774759292603</v>
+        <v>2.200795412063599</v>
       </c>
       <c r="C73" t="n">
         <v>2.226</v>
@@ -1247,7 +1247,7 @@
         <v>1108.15</v>
       </c>
       <c r="B74" t="n">
-        <v>2.276157140731812</v>
+        <v>2.197877168655396</v>
       </c>
       <c r="C74" t="n">
         <v>2.231</v>
@@ -1258,7 +1258,7 @@
         <v>1108.2</v>
       </c>
       <c r="B75" t="n">
-        <v>2.270169019699097</v>
+        <v>2.196267366409302</v>
       </c>
       <c r="C75" t="n">
         <v>2.213</v>
@@ -1269,7 +1269,7 @@
         <v>1108.25</v>
       </c>
       <c r="B76" t="n">
-        <v>2.264273643493652</v>
+        <v>2.195947170257568</v>
       </c>
       <c r="C76" t="n">
         <v>2.193</v>
@@ -1280,7 +1280,7 @@
         <v>1108.3</v>
       </c>
       <c r="B77" t="n">
-        <v>2.265609741210938</v>
+        <v>2.201769828796387</v>
       </c>
       <c r="C77" t="n">
         <v>2.18</v>
@@ -1291,7 +1291,7 @@
         <v>1108.35</v>
       </c>
       <c r="B78" t="n">
-        <v>2.274274587631226</v>
+        <v>2.213561534881592</v>
       </c>
       <c r="C78" t="n">
         <v>2.191</v>
@@ -1302,7 +1302,7 @@
         <v>1108.4</v>
       </c>
       <c r="B79" t="n">
-        <v>2.280427217483521</v>
+        <v>2.222815036773682</v>
       </c>
       <c r="C79" t="n">
         <v>2.22</v>
@@ -1313,7 +1313,7 @@
         <v>1108.45</v>
       </c>
       <c r="B80" t="n">
-        <v>2.283126592636108</v>
+        <v>2.228771924972534</v>
       </c>
       <c r="C80" t="n">
         <v>2.251</v>
@@ -1324,7 +1324,7 @@
         <v>1108.5</v>
       </c>
       <c r="B81" t="n">
-        <v>2.290418386459351</v>
+        <v>2.237883806228638</v>
       </c>
       <c r="C81" t="n">
         <v>2.277</v>
@@ -1335,7 +1335,7 @@
         <v>1108.55</v>
       </c>
       <c r="B82" t="n">
-        <v>2.29194712638855</v>
+        <v>2.243202686309814</v>
       </c>
       <c r="C82" t="n">
         <v>2.293</v>
@@ -1346,7 +1346,7 @@
         <v>1108.6</v>
       </c>
       <c r="B83" t="n">
-        <v>2.28598952293396</v>
+        <v>2.243291616439819</v>
       </c>
       <c r="C83" t="n">
         <v>2.305</v>
@@ -1357,7 +1357,7 @@
         <v>1108.65</v>
       </c>
       <c r="B84" t="n">
-        <v>2.28025484085083</v>
+        <v>2.243295192718506</v>
       </c>
       <c r="C84" t="n">
         <v>2.31</v>
@@ -1368,7 +1368,7 @@
         <v>1108.7</v>
       </c>
       <c r="B85" t="n">
-        <v>2.276243209838867</v>
+        <v>2.24519157409668</v>
       </c>
       <c r="C85" t="n">
         <v>2.319</v>
@@ -1379,7 +1379,7 @@
         <v>1108.75</v>
       </c>
       <c r="B86" t="n">
-        <v>2.282167434692383</v>
+        <v>2.254925966262817</v>
       </c>
       <c r="C86" t="n">
         <v>2.328</v>
@@ -1390,7 +1390,7 @@
         <v>1108.8</v>
       </c>
       <c r="B87" t="n">
-        <v>2.287297248840332</v>
+        <v>2.264314413070679</v>
       </c>
       <c r="C87" t="n">
         <v>2.337</v>
@@ -1401,7 +1401,7 @@
         <v>1108.85</v>
       </c>
       <c r="B88" t="n">
-        <v>2.292016506195068</v>
+        <v>2.272756338119507</v>
       </c>
       <c r="C88" t="n">
         <v>2.342</v>
@@ -1412,7 +1412,7 @@
         <v>1108.9</v>
       </c>
       <c r="B89" t="n">
-        <v>2.296545743942261</v>
+        <v>2.279866218566895</v>
       </c>
       <c r="C89" t="n">
         <v>2.35</v>
@@ -1423,7 +1423,7 @@
         <v>1108.95</v>
       </c>
       <c r="B90" t="n">
-        <v>2.294445037841797</v>
+        <v>2.281710624694824</v>
       </c>
       <c r="C90" t="n">
         <v>2.353</v>
@@ -1434,7 +1434,7 @@
         <v>1109</v>
       </c>
       <c r="B91" t="n">
-        <v>2.297189950942993</v>
+        <v>2.287623405456543</v>
       </c>
       <c r="C91" t="n">
         <v>2.354</v>
@@ -1445,7 +1445,7 @@
         <v>1109.05</v>
       </c>
       <c r="B92" t="n">
-        <v>2.323318958282471</v>
+        <v>2.310397386550903</v>
       </c>
       <c r="C92" t="n">
         <v>2.357</v>
@@ -1456,7 +1456,7 @@
         <v>1109.1</v>
       </c>
       <c r="B93" t="n">
-        <v>2.342928171157837</v>
+        <v>2.328051805496216</v>
       </c>
       <c r="C93" t="n">
         <v>2.345</v>
@@ -1467,7 +1467,7 @@
         <v>1109.15</v>
       </c>
       <c r="B94" t="n">
-        <v>2.340633392333984</v>
+        <v>2.329500675201416</v>
       </c>
       <c r="C94" t="n">
         <v>2.331</v>
@@ -1478,7 +1478,7 @@
         <v>1109.2</v>
       </c>
       <c r="B95" t="n">
-        <v>2.317293643951416</v>
+        <v>2.317312002182007</v>
       </c>
       <c r="C95" t="n">
         <v>2.324</v>
@@ -1489,7 +1489,7 @@
         <v>1109.25</v>
       </c>
       <c r="B96" t="n">
-        <v>2.306891918182373</v>
+        <v>2.313104867935181</v>
       </c>
       <c r="C96" t="n">
         <v>2.327</v>
@@ -1500,7 +1500,7 @@
         <v>1109.3</v>
       </c>
       <c r="B97" t="n">
-        <v>2.292923927307129</v>
+        <v>2.306408882141113</v>
       </c>
       <c r="C97" t="n">
         <v>2.341</v>
@@ -1511,7 +1511,7 @@
         <v>1109.35</v>
       </c>
       <c r="B98" t="n">
-        <v>2.287211894989014</v>
+        <v>2.304757833480835</v>
       </c>
       <c r="C98" t="n">
         <v>2.362</v>
@@ -1522,7 +1522,7 @@
         <v>1109.4</v>
       </c>
       <c r="B99" t="n">
-        <v>2.282365560531616</v>
+        <v>2.30300760269165</v>
       </c>
       <c r="C99" t="n">
         <v>2.373</v>
@@ -1533,7 +1533,7 @@
         <v>1109.45</v>
       </c>
       <c r="B100" t="n">
-        <v>2.279920816421509</v>
+        <v>2.302089214324951</v>
       </c>
       <c r="C100" t="n">
         <v>2.377</v>
@@ -1544,7 +1544,7 @@
         <v>1109.5</v>
       </c>
       <c r="B101" t="n">
-        <v>2.278406620025635</v>
+        <v>2.301042556762695</v>
       </c>
       <c r="C101" t="n">
         <v>2.379</v>
@@ -1555,7 +1555,7 @@
         <v>1109.55</v>
       </c>
       <c r="B102" t="n">
-        <v>2.277176856994629</v>
+        <v>2.299132585525513</v>
       </c>
       <c r="C102" t="n">
         <v>2.387</v>
@@ -1566,7 +1566,7 @@
         <v>1109.6</v>
       </c>
       <c r="B103" t="n">
-        <v>2.26984715461731</v>
+        <v>2.292847156524658</v>
       </c>
       <c r="C103" t="n">
         <v>2.396</v>
@@ -1577,7 +1577,7 @@
         <v>1109.65</v>
       </c>
       <c r="B104" t="n">
-        <v>2.261826515197754</v>
+        <v>2.286805629730225</v>
       </c>
       <c r="C104" t="n">
         <v>2.403</v>
@@ -1588,7 +1588,7 @@
         <v>1109.7</v>
       </c>
       <c r="B105" t="n">
-        <v>2.282791614532471</v>
+        <v>2.300765514373779</v>
       </c>
       <c r="C105" t="n">
         <v>2.406</v>
@@ -1599,7 +1599,7 @@
         <v>1109.75</v>
       </c>
       <c r="B106" t="n">
-        <v>2.314030647277832</v>
+        <v>2.321798324584961</v>
       </c>
       <c r="C106" t="n">
         <v>2.402</v>
@@ -1610,7 +1610,7 @@
         <v>1109.8</v>
       </c>
       <c r="B107" t="n">
-        <v>2.336422204971313</v>
+        <v>2.336335897445679</v>
       </c>
       <c r="C107" t="n">
         <v>2.387</v>
@@ -1621,7 +1621,7 @@
         <v>1109.85</v>
       </c>
       <c r="B108" t="n">
-        <v>2.317990779876709</v>
+        <v>2.3253173828125</v>
       </c>
       <c r="C108" t="n">
         <v>2.37</v>
@@ -1632,7 +1632,7 @@
         <v>1109.9</v>
       </c>
       <c r="B109" t="n">
-        <v>2.312529563903809</v>
+        <v>2.321216344833374</v>
       </c>
       <c r="C109" t="n">
         <v>2.349</v>
@@ -1643,7 +1643,7 @@
         <v>1109.95</v>
       </c>
       <c r="B110" t="n">
-        <v>2.306663036346436</v>
+        <v>2.316649675369263</v>
       </c>
       <c r="C110" t="n">
         <v>2.316</v>
@@ -1654,7 +1654,7 @@
         <v>1110</v>
       </c>
       <c r="B111" t="n">
-        <v>2.286595106124878</v>
+        <v>2.302900791168213</v>
       </c>
       <c r="C111" t="n">
         <v>2.283</v>
@@ -1665,7 +1665,7 @@
         <v>1110.05</v>
       </c>
       <c r="B112" t="n">
-        <v>2.263927936553955</v>
+        <v>2.287531614303589</v>
       </c>
       <c r="C112" t="n">
         <v>2.245</v>
@@ -1676,7 +1676,7 @@
         <v>1110.1</v>
       </c>
       <c r="B113" t="n">
-        <v>2.246869564056396</v>
+        <v>2.276202440261841</v>
       </c>
       <c r="C113" t="n">
         <v>2.221</v>
@@ -1687,7 +1687,7 @@
         <v>1110.15</v>
       </c>
       <c r="B114" t="n">
-        <v>2.254928588867188</v>
+        <v>2.281672954559326</v>
       </c>
       <c r="C114" t="n">
         <v>2.207</v>
@@ -1698,7 +1698,7 @@
         <v>1110.2</v>
       </c>
       <c r="B115" t="n">
-        <v>2.260827779769897</v>
+        <v>2.285189390182495</v>
       </c>
       <c r="C115" t="n">
         <v>2.212</v>
@@ -1709,7 +1709,7 @@
         <v>1110.25</v>
       </c>
       <c r="B116" t="n">
-        <v>2.260949850082397</v>
+        <v>2.28499698638916</v>
       </c>
       <c r="C116" t="n">
         <v>2.216</v>
@@ -1720,7 +1720,7 @@
         <v>1110.3</v>
       </c>
       <c r="B117" t="n">
-        <v>2.261058807373047</v>
+        <v>2.285460233688354</v>
       </c>
       <c r="C117" t="n">
         <v>2.225</v>
@@ -1731,7 +1731,7 @@
         <v>1110.35</v>
       </c>
       <c r="B118" t="n">
-        <v>2.258094310760498</v>
+        <v>2.284319400787354</v>
       </c>
       <c r="C118" t="n">
         <v>2.227</v>
@@ -1742,7 +1742,7 @@
         <v>1110.4</v>
       </c>
       <c r="B119" t="n">
-        <v>2.253469467163086</v>
+        <v>2.283077478408813</v>
       </c>
       <c r="C119" t="n">
         <v>2.232</v>
@@ -1753,7 +1753,7 @@
         <v>1110.45</v>
       </c>
       <c r="B120" t="n">
-        <v>2.249589443206787</v>
+        <v>2.283030033111572</v>
       </c>
       <c r="C120" t="n">
         <v>2.239</v>
@@ -1764,7 +1764,7 @@
         <v>1110.5</v>
       </c>
       <c r="B121" t="n">
-        <v>2.24712872505188</v>
+        <v>2.283747673034668</v>
       </c>
       <c r="C121" t="n">
         <v>2.252</v>
@@ -1775,7 +1775,7 @@
         <v>1110.55</v>
       </c>
       <c r="B122" t="n">
-        <v>2.260518789291382</v>
+        <v>2.296070337295532</v>
       </c>
       <c r="C122" t="n">
         <v>2.269</v>
@@ -1786,7 +1786,7 @@
         <v>1110.6</v>
       </c>
       <c r="B123" t="n">
-        <v>2.269120454788208</v>
+        <v>2.304671049118042</v>
       </c>
       <c r="C123" t="n">
         <v>2.284</v>
@@ -1797,7 +1797,7 @@
         <v>1110.65</v>
       </c>
       <c r="B124" t="n">
-        <v>2.279762029647827</v>
+        <v>2.315152645111084</v>
       </c>
       <c r="C124" t="n">
         <v>2.295</v>
@@ -1808,7 +1808,7 @@
         <v>1110.7</v>
       </c>
       <c r="B125" t="n">
-        <v>2.281242370605469</v>
+        <v>2.318835496902466</v>
       </c>
       <c r="C125" t="n">
         <v>2.3</v>
@@ -1819,7 +1819,7 @@
         <v>1110.75</v>
       </c>
       <c r="B126" t="n">
-        <v>2.282535552978516</v>
+        <v>2.321755647659302</v>
       </c>
       <c r="C126" t="n">
         <v>2.296</v>
@@ -1830,7 +1830,7 @@
         <v>1110.8</v>
       </c>
       <c r="B127" t="n">
-        <v>2.283330202102661</v>
+        <v>2.323445081710815</v>
       </c>
       <c r="C127" t="n">
         <v>2.286</v>
@@ -1841,7 +1841,7 @@
         <v>1110.85</v>
       </c>
       <c r="B128" t="n">
-        <v>2.281296968460083</v>
+        <v>2.322842597961426</v>
       </c>
       <c r="C128" t="n">
         <v>2.276</v>
@@ -1852,7 +1852,7 @@
         <v>1110.9</v>
       </c>
       <c r="B129" t="n">
-        <v>2.269996881484985</v>
+        <v>2.316146373748779</v>
       </c>
       <c r="C129" t="n">
         <v>2.265</v>
@@ -1863,7 +1863,7 @@
         <v>1110.95</v>
       </c>
       <c r="B130" t="n">
-        <v>2.259863376617432</v>
+        <v>2.311164855957031</v>
       </c>
       <c r="C130" t="n">
         <v>2.256</v>
@@ -1874,7 +1874,7 @@
         <v>1111</v>
       </c>
       <c r="B131" t="n">
-        <v>2.252418756484985</v>
+        <v>2.308222055435181</v>
       </c>
       <c r="C131" t="n">
         <v>2.249</v>
@@ -1885,7 +1885,7 @@
         <v>1111.05</v>
       </c>
       <c r="B132" t="n">
-        <v>2.253840684890747</v>
+        <v>2.310911178588867</v>
       </c>
       <c r="C132" t="n">
         <v>2.24</v>
@@ -1896,7 +1896,7 @@
         <v>1111.1</v>
       </c>
       <c r="B133" t="n">
-        <v>2.259277820587158</v>
+        <v>2.315695762634277</v>
       </c>
       <c r="C133" t="n">
         <v>2.243</v>
@@ -1907,7 +1907,7 @@
         <v>1111.15</v>
       </c>
       <c r="B134" t="n">
-        <v>2.258814573287964</v>
+        <v>2.31501293182373</v>
       </c>
       <c r="C134" t="n">
         <v>2.245</v>
@@ -1918,7 +1918,7 @@
         <v>1111.2</v>
       </c>
       <c r="B135" t="n">
-        <v>2.257469654083252</v>
+        <v>2.312961101531982</v>
       </c>
       <c r="C135" t="n">
         <v>2.25</v>
@@ -1929,7 +1929,7 @@
         <v>1111.25</v>
       </c>
       <c r="B136" t="n">
-        <v>2.258991956710815</v>
+        <v>2.312528848648071</v>
       </c>
       <c r="C136" t="n">
         <v>2.254</v>
@@ -1940,7 +1940,7 @@
         <v>1111.3</v>
       </c>
       <c r="B137" t="n">
-        <v>2.256393909454346</v>
+        <v>2.308206558227539</v>
       </c>
       <c r="C137" t="n">
         <v>2.249</v>
@@ -1951,7 +1951,7 @@
         <v>1111.35</v>
       </c>
       <c r="B138" t="n">
-        <v>2.254298686981201</v>
+        <v>2.304002285003662</v>
       </c>
       <c r="C138" t="n">
         <v>2.241</v>
@@ -1962,7 +1962,7 @@
         <v>1111.4</v>
       </c>
       <c r="B139" t="n">
-        <v>2.259658813476562</v>
+        <v>2.304780960083008</v>
       </c>
       <c r="C139" t="n">
         <v>2.235</v>
@@ -1973,7 +1973,7 @@
         <v>1111.45</v>
       </c>
       <c r="B140" t="n">
-        <v>2.260681390762329</v>
+        <v>2.301125764846802</v>
       </c>
       <c r="C140" t="n">
         <v>2.231</v>
@@ -1984,7 +1984,7 @@
         <v>1111.5</v>
       </c>
       <c r="B141" t="n">
-        <v>2.260103225708008</v>
+        <v>2.295908212661743</v>
       </c>
       <c r="C141" t="n">
         <v>2.228</v>
@@ -1995,7 +1995,7 @@
         <v>1111.55</v>
       </c>
       <c r="B142" t="n">
-        <v>2.267383098602295</v>
+        <v>2.296103715896606</v>
       </c>
       <c r="C142" t="n">
         <v>2.226</v>
@@ -2006,7 +2006,7 @@
         <v>1111.6</v>
       </c>
       <c r="B143" t="n">
-        <v>2.26802659034729</v>
+        <v>2.290544271469116</v>
       </c>
       <c r="C143" t="n">
         <v>2.227</v>
@@ -2017,7 +2017,7 @@
         <v>1111.65</v>
       </c>
       <c r="B144" t="n">
-        <v>2.263797044754028</v>
+        <v>2.281316041946411</v>
       </c>
       <c r="C144" t="n">
         <v>2.236</v>
@@ -2028,7 +2028,7 @@
         <v>1111.7</v>
       </c>
       <c r="B145" t="n">
-        <v>2.266654491424561</v>
+        <v>2.276989459991455</v>
       </c>
       <c r="C145" t="n">
         <v>2.252</v>
@@ -2039,7 +2039,7 @@
         <v>1111.75</v>
       </c>
       <c r="B146" t="n">
-        <v>2.270982265472412</v>
+        <v>2.273422479629517</v>
       </c>
       <c r="C146" t="n">
         <v>2.266</v>
@@ -2050,7 +2050,7 @@
         <v>1111.8</v>
       </c>
       <c r="B147" t="n">
-        <v>2.270225524902344</v>
+        <v>2.266424894332886</v>
       </c>
       <c r="C147" t="n">
         <v>2.28</v>
@@ -2061,7 +2061,7 @@
         <v>1111.85</v>
       </c>
       <c r="B148" t="n">
-        <v>2.271219253540039</v>
+        <v>2.261216163635254</v>
       </c>
       <c r="C148" t="n">
         <v>2.287</v>
@@ -2072,7 +2072,7 @@
         <v>1111.9</v>
       </c>
       <c r="B149" t="n">
-        <v>2.283718585968018</v>
+        <v>2.26481032371521</v>
       </c>
       <c r="C149" t="n">
         <v>2.294</v>
@@ -2083,7 +2083,7 @@
         <v>1111.95</v>
       </c>
       <c r="B150" t="n">
-        <v>2.289781093597412</v>
+        <v>2.264405727386475</v>
       </c>
       <c r="C150" t="n">
         <v>2.304</v>
@@ -2094,7 +2094,7 @@
         <v>1112</v>
       </c>
       <c r="B151" t="n">
-        <v>2.294162750244141</v>
+        <v>2.263298034667969</v>
       </c>
       <c r="C151" t="n">
         <v>2.306</v>
@@ -2105,7 +2105,7 @@
         <v>1112.05</v>
       </c>
       <c r="B152" t="n">
-        <v>2.294318199157715</v>
+        <v>2.259530305862427</v>
       </c>
       <c r="C152" t="n">
         <v>2.303</v>
@@ -2116,7 +2116,7 @@
         <v>1112.1</v>
       </c>
       <c r="B153" t="n">
-        <v>2.294444561004639</v>
+        <v>2.255408048629761</v>
       </c>
       <c r="C153" t="n">
         <v>2.296</v>
@@ -2127,7 +2127,7 @@
         <v>1112.15</v>
       </c>
       <c r="B154" t="n">
-        <v>2.29208517074585</v>
+        <v>2.24981689453125</v>
       </c>
       <c r="C154" t="n">
         <v>2.286</v>
@@ -2138,7 +2138,7 @@
         <v>1112.2</v>
       </c>
       <c r="B155" t="n">
-        <v>2.289146661758423</v>
+        <v>2.243872880935669</v>
       </c>
       <c r="C155" t="n">
         <v>2.281</v>
@@ -2149,7 +2149,7 @@
         <v>1112.25</v>
       </c>
       <c r="B156" t="n">
-        <v>2.276999711990356</v>
+        <v>2.23176908493042</v>
       </c>
       <c r="C156" t="n">
         <v>2.279</v>
@@ -2160,7 +2160,7 @@
         <v>1112.3</v>
       </c>
       <c r="B157" t="n">
-        <v>2.274717569351196</v>
+        <v>2.225890159606934</v>
       </c>
       <c r="C157" t="n">
         <v>2.286</v>
@@ -2171,7 +2171,7 @@
         <v>1112.35</v>
       </c>
       <c r="B158" t="n">
-        <v>2.287798643112183</v>
+        <v>2.231121301651001</v>
       </c>
       <c r="C158" t="n">
         <v>2.308</v>
@@ -2182,7 +2182,7 @@
         <v>1112.4</v>
       </c>
       <c r="B159" t="n">
-        <v>2.306607007980347</v>
+        <v>2.241752147674561</v>
       </c>
       <c r="C159" t="n">
         <v>2.332</v>
@@ -2193,7 +2193,7 @@
         <v>1112.45</v>
       </c>
       <c r="B160" t="n">
-        <v>2.314513206481934</v>
+        <v>2.246335029602051</v>
       </c>
       <c r="C160" t="n">
         <v>2.359</v>
@@ -2204,7 +2204,7 @@
         <v>1112.5</v>
       </c>
       <c r="B161" t="n">
-        <v>2.319186449050903</v>
+        <v>2.248945474624634</v>
       </c>
       <c r="C161" t="n">
         <v>2.369</v>
@@ -2215,7 +2215,7 @@
         <v>1112.55</v>
       </c>
       <c r="B162" t="n">
-        <v>2.319090127944946</v>
+        <v>2.248500108718872</v>
       </c>
       <c r="C162" t="n">
         <v>2.367</v>
@@ -2226,7 +2226,7 @@
         <v>1112.6</v>
       </c>
       <c r="B163" t="n">
-        <v>2.312089443206787</v>
+        <v>2.243588447570801</v>
       </c>
       <c r="C163" t="n">
         <v>2.342</v>
@@ -2237,7 +2237,7 @@
         <v>1112.65</v>
       </c>
       <c r="B164" t="n">
-        <v>2.309425354003906</v>
+        <v>2.242209911346436</v>
       </c>
       <c r="C164" t="n">
         <v>2.301</v>
@@ -2248,7 +2248,7 @@
         <v>1112.7</v>
       </c>
       <c r="B165" t="n">
-        <v>2.304641008377075</v>
+        <v>2.241561412811279</v>
       </c>
       <c r="C165" t="n">
         <v>2.247</v>
@@ -2259,7 +2259,7 @@
         <v>1112.75</v>
       </c>
       <c r="B166" t="n">
-        <v>2.292197704315186</v>
+        <v>2.235188961029053</v>
       </c>
       <c r="C166" t="n">
         <v>2.191</v>
@@ -2270,7 +2270,7 @@
         <v>1112.8</v>
       </c>
       <c r="B167" t="n">
-        <v>2.27251148223877</v>
+        <v>2.223114728927612</v>
       </c>
       <c r="C167" t="n">
         <v>2.139</v>
@@ -2281,7 +2281,7 @@
         <v>1112.85</v>
       </c>
       <c r="B168" t="n">
-        <v>2.255789756774902</v>
+        <v>2.211020708084106</v>
       </c>
       <c r="C168" t="n">
         <v>2.099</v>
@@ -2292,7 +2292,7 @@
         <v>1112.9</v>
       </c>
       <c r="B169" t="n">
-        <v>2.231498241424561</v>
+        <v>2.190769910812378</v>
       </c>
       <c r="C169" t="n">
         <v>2.076</v>
@@ -2303,7 +2303,7 @@
         <v>1112.95</v>
       </c>
       <c r="B170" t="n">
-        <v>2.211614370346069</v>
+        <v>2.170672655105591</v>
       </c>
       <c r="C170" t="n">
         <v>2.069</v>
@@ -2314,7 +2314,7 @@
         <v>1113</v>
       </c>
       <c r="B171" t="n">
-        <v>2.20192551612854</v>
+        <v>2.155484914779663</v>
       </c>
       <c r="C171" t="n">
         <v>2.073</v>
@@ -2325,7 +2325,7 @@
         <v>1113.05</v>
       </c>
       <c r="B172" t="n">
-        <v>2.198699951171875</v>
+        <v>2.142263889312744</v>
       </c>
       <c r="C172" t="n">
         <v>2.08</v>
@@ -2336,7 +2336,7 @@
         <v>1113.1</v>
       </c>
       <c r="B173" t="n">
-        <v>2.19444465637207</v>
+        <v>2.131771326065063</v>
       </c>
       <c r="C173" t="n">
         <v>2.094</v>
@@ -2347,7 +2347,7 @@
         <v>1113.15</v>
       </c>
       <c r="B174" t="n">
-        <v>2.195152044296265</v>
+        <v>2.128307819366455</v>
       </c>
       <c r="C174" t="n">
         <v>2.104</v>
@@ -2358,7 +2358,7 @@
         <v>1113.2</v>
       </c>
       <c r="B175" t="n">
-        <v>2.199754238128662</v>
+        <v>2.130805253982544</v>
       </c>
       <c r="C175" t="n">
         <v>2.118</v>
@@ -2369,7 +2369,7 @@
         <v>1113.25</v>
       </c>
       <c r="B176" t="n">
-        <v>2.203831672668457</v>
+        <v>2.136381864547729</v>
       </c>
       <c r="C176" t="n">
         <v>2.134</v>
@@ -2380,7 +2380,7 @@
         <v>1113.3</v>
       </c>
       <c r="B177" t="n">
-        <v>2.213160037994385</v>
+        <v>2.149219036102295</v>
       </c>
       <c r="C177" t="n">
         <v>2.149</v>
@@ -2391,7 +2391,7 @@
         <v>1113.35</v>
       </c>
       <c r="B178" t="n">
-        <v>2.222343921661377</v>
+        <v>2.164652347564697</v>
       </c>
       <c r="C178" t="n">
         <v>2.164</v>
@@ -2402,7 +2402,7 @@
         <v>1113.4</v>
       </c>
       <c r="B179" t="n">
-        <v>2.226121187210083</v>
+        <v>2.178514003753662</v>
       </c>
       <c r="C179" t="n">
         <v>2.175</v>
@@ -2413,7 +2413,7 @@
         <v>1113.45</v>
       </c>
       <c r="B180" t="n">
-        <v>2.224133968353271</v>
+        <v>2.188552856445312</v>
       </c>
       <c r="C180" t="n">
         <v>2.174</v>
@@ -2424,7 +2424,7 @@
         <v>1113.5</v>
       </c>
       <c r="B181" t="n">
-        <v>2.22384238243103</v>
+        <v>2.198187828063965</v>
       </c>
       <c r="C181" t="n">
         <v>2.172</v>
@@ -2435,7 +2435,7 @@
         <v>1113.55</v>
       </c>
       <c r="B182" t="n">
-        <v>2.228933334350586</v>
+        <v>2.210651397705078</v>
       </c>
       <c r="C182" t="n">
         <v>2.175</v>
@@ -2446,7 +2446,7 @@
         <v>1113.6</v>
       </c>
       <c r="B183" t="n">
-        <v>2.236888647079468</v>
+        <v>2.225958824157715</v>
       </c>
       <c r="C183" t="n">
         <v>2.184</v>
@@ -2457,7 +2457,7 @@
         <v>1113.65</v>
       </c>
       <c r="B184" t="n">
-        <v>2.239002466201782</v>
+        <v>2.238088607788086</v>
       </c>
       <c r="C184" t="n">
         <v>2.197</v>
@@ -2468,7 +2468,7 @@
         <v>1113.7</v>
       </c>
       <c r="B185" t="n">
-        <v>2.235509395599365</v>
+        <v>2.245699644088745</v>
       </c>
       <c r="C185" t="n">
         <v>2.199</v>
@@ -2479,7 +2479,7 @@
         <v>1113.75</v>
       </c>
       <c r="B186" t="n">
-        <v>2.229120969772339</v>
+        <v>2.248169898986816</v>
       </c>
       <c r="C186" t="n">
         <v>2.196</v>
@@ -2490,7 +2490,7 @@
         <v>1113.8</v>
       </c>
       <c r="B187" t="n">
-        <v>2.219841480255127</v>
+        <v>2.245266199111938</v>
       </c>
       <c r="C187" t="n">
         <v>2.189</v>
@@ -2501,7 +2501,7 @@
         <v>1113.85</v>
       </c>
       <c r="B188" t="n">
-        <v>2.214530467987061</v>
+        <v>2.242621421813965</v>
       </c>
       <c r="C188" t="n">
         <v>2.186</v>
@@ -2512,7 +2512,7 @@
         <v>1113.9</v>
       </c>
       <c r="B189" t="n">
-        <v>2.21349048614502</v>
+        <v>2.24160623550415</v>
       </c>
       <c r="C189" t="n">
         <v>2.185</v>
@@ -2523,7 +2523,7 @@
         <v>1113.95</v>
       </c>
       <c r="B190" t="n">
-        <v>2.209208726882935</v>
+        <v>2.238312482833862</v>
       </c>
       <c r="C190" t="n">
         <v>2.181</v>
@@ -2534,7 +2534,7 @@
         <v>1114</v>
       </c>
       <c r="B191" t="n">
-        <v>2.209671497344971</v>
+        <v>2.238621711730957</v>
       </c>
       <c r="C191" t="n">
         <v>2.183</v>
@@ -2545,7 +2545,7 @@
         <v>1114.05</v>
       </c>
       <c r="B192" t="n">
-        <v>2.216491937637329</v>
+        <v>2.244264125823975</v>
       </c>
       <c r="C192" t="n">
         <v>2.189</v>
@@ -2556,7 +2556,7 @@
         <v>1114.1</v>
       </c>
       <c r="B193" t="n">
-        <v>2.233080387115479</v>
+        <v>2.258274555206299</v>
       </c>
       <c r="C193" t="n">
         <v>2.209</v>
@@ -2567,7 +2567,7 @@
         <v>1114.15</v>
       </c>
       <c r="B194" t="n">
-        <v>2.247057914733887</v>
+        <v>2.273358821868896</v>
       </c>
       <c r="C194" t="n">
         <v>2.234</v>
@@ -2578,7 +2578,7 @@
         <v>1114.2</v>
       </c>
       <c r="B195" t="n">
-        <v>2.259350776672363</v>
+        <v>2.288346767425537</v>
       </c>
       <c r="C195" t="n">
         <v>2.26</v>
@@ -2589,7 +2589,7 @@
         <v>1114.25</v>
       </c>
       <c r="B196" t="n">
-        <v>2.269259929656982</v>
+        <v>2.299538612365723</v>
       </c>
       <c r="C196" t="n">
         <v>2.281</v>
@@ -2600,7 +2600,7 @@
         <v>1114.3</v>
       </c>
       <c r="B197" t="n">
-        <v>2.276158809661865</v>
+        <v>2.306002616882324</v>
       </c>
       <c r="C197" t="n">
         <v>2.306</v>
@@ -2611,7 +2611,7 @@
         <v>1114.35</v>
       </c>
       <c r="B198" t="n">
-        <v>2.280749320983887</v>
+        <v>2.308415412902832</v>
       </c>
       <c r="C198" t="n">
         <v>2.332</v>
@@ -2622,7 +2622,7 @@
         <v>1114.4</v>
       </c>
       <c r="B199" t="n">
-        <v>2.282682418823242</v>
+        <v>2.30694317817688</v>
       </c>
       <c r="C199" t="n">
         <v>2.345</v>
@@ -2633,7 +2633,7 @@
         <v>1114.45</v>
       </c>
       <c r="B200" t="n">
-        <v>2.281593322753906</v>
+        <v>2.306520938873291</v>
       </c>
       <c r="C200" t="n">
         <v>2.344</v>
@@ -2644,7 +2644,7 @@
         <v>1114.5</v>
       </c>
       <c r="B201" t="n">
-        <v>2.27790093421936</v>
+        <v>2.304939746856689</v>
       </c>
       <c r="C201" t="n">
         <v>2.321</v>
@@ -2655,7 +2655,7 @@
         <v>1114.55</v>
       </c>
       <c r="B202" t="n">
-        <v>2.274002552032471</v>
+        <v>2.302709817886353</v>
       </c>
       <c r="C202" t="n">
         <v>2.281</v>
@@ -2666,7 +2666,7 @@
         <v>1114.6</v>
       </c>
       <c r="B203" t="n">
-        <v>2.273668527603149</v>
+        <v>2.302513837814331</v>
       </c>
       <c r="C203" t="n">
         <v>2.245</v>
@@ -2677,7 +2677,7 @@
         <v>1114.65</v>
       </c>
       <c r="B204" t="n">
-        <v>2.265788316726685</v>
+        <v>2.297282934188843</v>
       </c>
       <c r="C204" t="n">
         <v>2.218</v>
@@ -2688,7 +2688,7 @@
         <v>1114.7</v>
       </c>
       <c r="B205" t="n">
-        <v>2.249051332473755</v>
+        <v>2.286402940750122</v>
       </c>
       <c r="C205" t="n">
         <v>2.206</v>
@@ -2699,7 +2699,7 @@
         <v>1114.75</v>
       </c>
       <c r="B206" t="n">
-        <v>2.235265493392944</v>
+        <v>2.276960611343384</v>
       </c>
       <c r="C206" t="n">
         <v>2.213</v>
@@ -2710,7 +2710,7 @@
         <v>1114.8</v>
       </c>
       <c r="B207" t="n">
-        <v>2.22551965713501</v>
+        <v>2.269094705581665</v>
       </c>
       <c r="C207" t="n">
         <v>2.225</v>
@@ -2721,7 +2721,7 @@
         <v>1114.85</v>
       </c>
       <c r="B208" t="n">
-        <v>2.220902681350708</v>
+        <v>2.263839721679688</v>
       </c>
       <c r="C208" t="n">
         <v>2.245</v>
@@ -2732,7 +2732,7 @@
         <v>1114.9</v>
       </c>
       <c r="B209" t="n">
-        <v>2.226861715316772</v>
+        <v>2.266762256622314</v>
       </c>
       <c r="C209" t="n">
         <v>2.261</v>
@@ -2743,7 +2743,7 @@
         <v>1114.95</v>
       </c>
       <c r="B210" t="n">
-        <v>2.236582279205322</v>
+        <v>2.27275562286377</v>
       </c>
       <c r="C210" t="n">
         <v>2.267</v>
@@ -2754,7 +2754,7 @@
         <v>1115</v>
       </c>
       <c r="B211" t="n">
-        <v>2.243646383285522</v>
+        <v>2.277934551239014</v>
       </c>
       <c r="C211" t="n">
         <v>2.28</v>
@@ -2765,7 +2765,7 @@
         <v>1115.05</v>
       </c>
       <c r="B212" t="n">
-        <v>2.240119695663452</v>
+        <v>2.274893283843994</v>
       </c>
       <c r="C212" t="n">
         <v>2.287</v>
@@ -2776,7 +2776,7 @@
         <v>1115.1</v>
       </c>
       <c r="B213" t="n">
-        <v>2.240674734115601</v>
+        <v>2.274492979049683</v>
       </c>
       <c r="C213" t="n">
         <v>2.296</v>
@@ -2787,7 +2787,7 @@
         <v>1115.15</v>
       </c>
       <c r="B214" t="n">
-        <v>2.245906114578247</v>
+        <v>2.277718305587769</v>
       </c>
       <c r="C214" t="n">
         <v>2.3</v>
@@ -2798,7 +2798,7 @@
         <v>1115.2</v>
       </c>
       <c r="B215" t="n">
-        <v>2.243547677993774</v>
+        <v>2.274887084960938</v>
       </c>
       <c r="C215" t="n">
         <v>2.298</v>
@@ -2809,7 +2809,7 @@
         <v>1115.25</v>
       </c>
       <c r="B216" t="n">
-        <v>2.240143060684204</v>
+        <v>2.271576881408691</v>
       </c>
       <c r="C216" t="n">
         <v>2.283</v>
@@ -2820,7 +2820,7 @@
         <v>1115.3</v>
       </c>
       <c r="B217" t="n">
-        <v>2.240665912628174</v>
+        <v>2.271416902542114</v>
       </c>
       <c r="C217" t="n">
         <v>2.262</v>
@@ -2831,7 +2831,7 @@
         <v>1115.35</v>
       </c>
       <c r="B218" t="n">
-        <v>2.240493059158325</v>
+        <v>2.269835948944092</v>
       </c>
       <c r="C218" t="n">
         <v>2.239</v>
@@ -2842,7 +2842,7 @@
         <v>1115.4</v>
       </c>
       <c r="B219" t="n">
-        <v>2.244314432144165</v>
+        <v>2.271078824996948</v>
       </c>
       <c r="C219" t="n">
         <v>2.21</v>
@@ -2853,7 +2853,7 @@
         <v>1115.45</v>
       </c>
       <c r="B220" t="n">
-        <v>2.242062091827393</v>
+        <v>2.267362594604492</v>
       </c>
       <c r="C220" t="n">
         <v>2.192</v>
@@ -2864,7 +2864,7 @@
         <v>1115.5</v>
       </c>
       <c r="B221" t="n">
-        <v>2.230807542800903</v>
+        <v>2.257452487945557</v>
       </c>
       <c r="C221" t="n">
         <v>2.183</v>
@@ -2875,7 +2875,7 @@
         <v>1115.55</v>
       </c>
       <c r="B222" t="n">
-        <v>2.217423915863037</v>
+        <v>2.247042179107666</v>
       </c>
       <c r="C222" t="n">
         <v>2.179</v>
@@ -2886,7 +2886,7 @@
         <v>1115.6</v>
       </c>
       <c r="B223" t="n">
-        <v>2.202019214630127</v>
+        <v>2.235042095184326</v>
       </c>
       <c r="C223" t="n">
         <v>2.184</v>
@@ -2897,7 +2897,7 @@
         <v>1115.65</v>
       </c>
       <c r="B224" t="n">
-        <v>2.190643310546875</v>
+        <v>2.226747512817383</v>
       </c>
       <c r="C224" t="n">
         <v>2.187</v>
@@ -2908,7 +2908,7 @@
         <v>1115.7</v>
       </c>
       <c r="B225" t="n">
-        <v>2.1817307472229</v>
+        <v>2.219797134399414</v>
       </c>
       <c r="C225" t="n">
         <v>2.196</v>
@@ -2919,7 +2919,7 @@
         <v>1115.75</v>
       </c>
       <c r="B226" t="n">
-        <v>2.178852796554565</v>
+        <v>2.218072175979614</v>
       </c>
       <c r="C226" t="n">
         <v>2.195</v>
@@ -2930,7 +2930,7 @@
         <v>1115.8</v>
       </c>
       <c r="B227" t="n">
-        <v>2.178273677825928</v>
+        <v>2.217513799667358</v>
       </c>
       <c r="C227" t="n">
         <v>2.188</v>
@@ -2941,7 +2941,7 @@
         <v>1115.85</v>
       </c>
       <c r="B228" t="n">
-        <v>2.17641282081604</v>
+        <v>2.215172290802002</v>
       </c>
       <c r="C228" t="n">
         <v>2.169</v>
@@ -2952,7 +2952,7 @@
         <v>1115.9</v>
       </c>
       <c r="B229" t="n">
-        <v>2.173792600631714</v>
+        <v>2.212009429931641</v>
       </c>
       <c r="C229" t="n">
         <v>2.157</v>
@@ -2963,7 +2963,7 @@
         <v>1115.95</v>
       </c>
       <c r="B230" t="n">
-        <v>2.171364068984985</v>
+        <v>2.208472728729248</v>
       </c>
       <c r="C230" t="n">
         <v>2.148</v>
@@ -2974,7 +2974,7 @@
         <v>1116</v>
       </c>
       <c r="B231" t="n">
-        <v>2.173226594924927</v>
+        <v>2.207359075546265</v>
       </c>
       <c r="C231" t="n">
         <v>2.157</v>
@@ -2985,7 +2985,7 @@
         <v>1116.05</v>
       </c>
       <c r="B232" t="n">
-        <v>2.184081077575684</v>
+        <v>2.211996078491211</v>
       </c>
       <c r="C232" t="n">
         <v>2.182</v>
@@ -2996,7 +2996,7 @@
         <v>1116.1</v>
       </c>
       <c r="B233" t="n">
-        <v>2.204328775405884</v>
+        <v>2.222770690917969</v>
       </c>
       <c r="C233" t="n">
         <v>2.216</v>
@@ -3007,7 +3007,7 @@
         <v>1116.15</v>
       </c>
       <c r="B234" t="n">
-        <v>2.223362445831299</v>
+        <v>2.230323791503906</v>
       </c>
       <c r="C234" t="n">
         <v>2.249</v>
@@ -3018,7 +3018,7 @@
         <v>1116.2</v>
       </c>
       <c r="B235" t="n">
-        <v>2.239441633224487</v>
+        <v>2.235613107681274</v>
       </c>
       <c r="C235" t="n">
         <v>2.271</v>
@@ -3029,7 +3029,7 @@
         <v>1116.25</v>
       </c>
       <c r="B236" t="n">
-        <v>2.244115591049194</v>
+        <v>2.232086896896362</v>
       </c>
       <c r="C236" t="n">
         <v>2.271</v>
@@ -3040,7 +3040,7 @@
         <v>1116.3</v>
       </c>
       <c r="B237" t="n">
-        <v>2.244289875030518</v>
+        <v>2.225598573684692</v>
       </c>
       <c r="C237" t="n">
         <v>2.269</v>
@@ -3051,7 +3051,7 @@
         <v>1116.35</v>
       </c>
       <c r="B238" t="n">
-        <v>2.246740579605103</v>
+        <v>2.221928358078003</v>
       </c>
       <c r="C238" t="n">
         <v>2.257</v>
@@ -3062,7 +3062,7 @@
         <v>1116.4</v>
       </c>
       <c r="B239" t="n">
-        <v>2.244096755981445</v>
+        <v>2.214510440826416</v>
       </c>
       <c r="C239" t="n">
         <v>2.254</v>
@@ -3073,7 +3073,7 @@
         <v>1116.45</v>
       </c>
       <c r="B240" t="n">
-        <v>2.243402719497681</v>
+        <v>2.208884477615356</v>
       </c>
       <c r="C240" t="n">
         <v>2.265</v>
@@ -3084,7 +3084,7 @@
         <v>1116.5</v>
       </c>
       <c r="B241" t="n">
-        <v>2.245043992996216</v>
+        <v>2.20486307144165</v>
       </c>
       <c r="C241" t="n">
         <v>2.28</v>
@@ -3095,7 +3095,7 @@
         <v>1116.55</v>
       </c>
       <c r="B242" t="n">
-        <v>2.248964071273804</v>
+        <v>2.202132940292358</v>
       </c>
       <c r="C242" t="n">
         <v>2.303</v>
@@ -3106,7 +3106,7 @@
         <v>1116.6</v>
       </c>
       <c r="B243" t="n">
-        <v>2.264003038406372</v>
+        <v>2.207634687423706</v>
       </c>
       <c r="C243" t="n">
         <v>2.321</v>
@@ -3117,7 +3117,7 @@
         <v>1116.65</v>
       </c>
       <c r="B244" t="n">
-        <v>2.277454376220703</v>
+        <v>2.21085786819458</v>
       </c>
       <c r="C244" t="n">
         <v>2.338</v>
@@ -3128,7 +3128,7 @@
         <v>1116.7</v>
       </c>
       <c r="B245" t="n">
-        <v>2.285337209701538</v>
+        <v>2.210223436355591</v>
       </c>
       <c r="C245" t="n">
         <v>2.35</v>
@@ -3139,7 +3139,7 @@
         <v>1116.75</v>
       </c>
       <c r="B246" t="n">
-        <v>2.28708553314209</v>
+        <v>2.206292867660522</v>
       </c>
       <c r="C246" t="n">
         <v>2.356</v>
@@ -3150,7 +3150,7 @@
         <v>1116.8</v>
       </c>
       <c r="B247" t="n">
-        <v>2.282755136489868</v>
+        <v>2.199440002441406</v>
       </c>
       <c r="C247" t="n">
         <v>2.358</v>
@@ -3161,7 +3161,7 @@
         <v>1116.85</v>
       </c>
       <c r="B248" t="n">
-        <v>2.281807899475098</v>
+        <v>2.196445941925049</v>
       </c>
       <c r="C248" t="n">
         <v>2.347</v>
@@ -3172,7 +3172,7 @@
         <v>1116.9</v>
       </c>
       <c r="B249" t="n">
-        <v>2.28361439704895</v>
+        <v>2.195849180221558</v>
       </c>
       <c r="C249" t="n">
         <v>2.326</v>
@@ -3183,7 +3183,7 @@
         <v>1116.95</v>
       </c>
       <c r="B250" t="n">
-        <v>2.282475709915161</v>
+        <v>2.19251561164856</v>
       </c>
       <c r="C250" t="n">
         <v>2.293</v>
@@ -3194,7 +3194,7 @@
         <v>1117</v>
       </c>
       <c r="B251" t="n">
-        <v>2.283423900604248</v>
+        <v>2.190920114517212</v>
       </c>
       <c r="C251" t="n">
         <v>2.263</v>
@@ -3205,7 +3205,7 @@
         <v>1117.05</v>
       </c>
       <c r="B252" t="n">
-        <v>2.283763885498047</v>
+        <v>2.189312934875488</v>
       </c>
       <c r="C252" t="n">
         <v>2.237</v>
@@ -3216,7 +3216,7 @@
         <v>1117.1</v>
       </c>
       <c r="B253" t="n">
-        <v>2.27428674697876</v>
+        <v>2.180777549743652</v>
       </c>
       <c r="C253" t="n">
         <v>2.222</v>
@@ -3227,7 +3227,7 @@
         <v>1117.15</v>
       </c>
       <c r="B254" t="n">
-        <v>2.263596773147583</v>
+        <v>2.173243761062622</v>
       </c>
       <c r="C254" t="n">
         <v>2.206</v>
@@ -3238,7 +3238,7 @@
         <v>1117.2</v>
       </c>
       <c r="B255" t="n">
-        <v>2.244362354278564</v>
+        <v>2.159773349761963</v>
       </c>
       <c r="C255" t="n">
         <v>2.192</v>
@@ -3249,7 +3249,7 @@
         <v>1117.25</v>
       </c>
       <c r="B256" t="n">
-        <v>2.226928234100342</v>
+        <v>2.149482250213623</v>
       </c>
       <c r="C256" t="n">
         <v>2.182</v>
@@ -3260,7 +3260,7 @@
         <v>1117.3</v>
       </c>
       <c r="B257" t="n">
-        <v>2.206557750701904</v>
+        <v>2.137407302856445</v>
       </c>
       <c r="C257" t="n">
         <v>2.178</v>
@@ -3271,7 +3271,7 @@
         <v>1117.35</v>
       </c>
       <c r="B258" t="n">
-        <v>2.195645570755005</v>
+        <v>2.13364052772522</v>
       </c>
       <c r="C258" t="n">
         <v>2.18</v>
@@ -3282,7 +3282,7 @@
         <v>1117.4</v>
       </c>
       <c r="B259" t="n">
-        <v>2.196977138519287</v>
+        <v>2.138759613037109</v>
       </c>
       <c r="C259" t="n">
         <v>2.183</v>
@@ -3293,7 +3293,7 @@
         <v>1117.45</v>
       </c>
       <c r="B260" t="n">
-        <v>2.212488174438477</v>
+        <v>2.153788805007935</v>
       </c>
       <c r="C260" t="n">
         <v>2.179</v>
@@ -3304,7 +3304,7 @@
         <v>1117.5</v>
       </c>
       <c r="B261" t="n">
-        <v>2.23951530456543</v>
+        <v>2.176574468612671</v>
       </c>
       <c r="C261" t="n">
         <v>2.171</v>
@@ -3315,7 +3315,7 @@
         <v>1117.55</v>
       </c>
       <c r="B262" t="n">
-        <v>2.25097918510437</v>
+        <v>2.18618369102478</v>
       </c>
       <c r="C262" t="n">
         <v>2.153</v>
@@ -3326,7 +3326,7 @@
         <v>1117.6</v>
       </c>
       <c r="B263" t="n">
-        <v>2.247856616973877</v>
+        <v>2.185408115386963</v>
       </c>
       <c r="C263" t="n">
         <v>2.139</v>
@@ -3337,7 +3337,7 @@
         <v>1117.65</v>
       </c>
       <c r="B264" t="n">
-        <v>2.242109775543213</v>
+        <v>2.183233261108398</v>
       </c>
       <c r="C264" t="n">
         <v>2.131</v>
@@ -3348,7 +3348,7 @@
         <v>1117.7</v>
       </c>
       <c r="B265" t="n">
-        <v>2.238429307937622</v>
+        <v>2.181627750396729</v>
       </c>
       <c r="C265" t="n">
         <v>2.126</v>
@@ -3359,7 +3359,7 @@
         <v>1117.75</v>
       </c>
       <c r="B266" t="n">
-        <v>2.23431658744812</v>
+        <v>2.178914308547974</v>
       </c>
       <c r="C266" t="n">
         <v>2.133</v>
@@ -3370,7 +3370,7 @@
         <v>1117.8</v>
       </c>
       <c r="B267" t="n">
-        <v>2.23383355140686</v>
+        <v>2.179864883422852</v>
       </c>
       <c r="C267" t="n">
         <v>2.146</v>
@@ -3381,7 +3381,7 @@
         <v>1117.85</v>
       </c>
       <c r="B268" t="n">
-        <v>2.242382526397705</v>
+        <v>2.188475131988525</v>
       </c>
       <c r="C268" t="n">
         <v>2.167</v>
@@ -3392,7 +3392,7 @@
         <v>1117.9</v>
       </c>
       <c r="B269" t="n">
-        <v>2.244988679885864</v>
+        <v>2.191421270370483</v>
       </c>
       <c r="C269" t="n">
         <v>2.183</v>
@@ -3403,7 +3403,7 @@
         <v>1117.95</v>
       </c>
       <c r="B270" t="n">
-        <v>2.240817070007324</v>
+        <v>2.188714027404785</v>
       </c>
       <c r="C270" t="n">
         <v>2.193</v>
@@ -3414,7 +3414,7 @@
         <v>1118</v>
       </c>
       <c r="B271" t="n">
-        <v>2.24388861656189</v>
+        <v>2.191307067871094</v>
       </c>
       <c r="C271" t="n">
         <v>2.196</v>
@@ -3425,7 +3425,7 @@
         <v>1118.05</v>
       </c>
       <c r="B272" t="n">
-        <v>2.253582000732422</v>
+        <v>2.198000192642212</v>
       </c>
       <c r="C272" t="n">
         <v>2.204</v>
@@ -3436,7 +3436,7 @@
         <v>1118.1</v>
       </c>
       <c r="B273" t="n">
-        <v>2.265514850616455</v>
+        <v>2.205840110778809</v>
       </c>
       <c r="C273" t="n">
         <v>2.208</v>
@@ -3447,7 +3447,7 @@
         <v>1118.15</v>
       </c>
       <c r="B274" t="n">
-        <v>2.278683185577393</v>
+        <v>2.214478969573975</v>
       </c>
       <c r="C274" t="n">
         <v>2.215</v>
@@ -3458,7 +3458,7 @@
         <v>1118.2</v>
       </c>
       <c r="B275" t="n">
-        <v>2.288671255111694</v>
+        <v>2.220502614974976</v>
       </c>
       <c r="C275" t="n">
         <v>2.225</v>
@@ -3469,7 +3469,7 @@
         <v>1118.25</v>
       </c>
       <c r="B276" t="n">
-        <v>2.2944495677948</v>
+        <v>2.223457336425781</v>
       </c>
       <c r="C276" t="n">
         <v>2.237</v>
@@ -3480,7 +3480,7 @@
         <v>1118.3</v>
       </c>
       <c r="B277" t="n">
-        <v>2.298423051834106</v>
+        <v>2.225363254547119</v>
       </c>
       <c r="C277" t="n">
         <v>2.245</v>
@@ -3491,7 +3491,7 @@
         <v>1118.35</v>
       </c>
       <c r="B278" t="n">
-        <v>2.301318168640137</v>
+        <v>2.226623296737671</v>
       </c>
       <c r="C278" t="n">
         <v>2.26</v>
@@ -3502,7 +3502,7 @@
         <v>1118.4</v>
       </c>
       <c r="B279" t="n">
-        <v>2.304462432861328</v>
+        <v>2.228356599807739</v>
       </c>
       <c r="C279" t="n">
         <v>2.263</v>
@@ -3513,7 +3513,7 @@
         <v>1118.45</v>
       </c>
       <c r="B280" t="n">
-        <v>2.308290243148804</v>
+        <v>2.230278730392456</v>
       </c>
       <c r="C280" t="n">
         <v>2.267</v>
@@ -3524,7 +3524,7 @@
         <v>1118.5</v>
       </c>
       <c r="B281" t="n">
-        <v>2.310332775115967</v>
+        <v>2.230415344238281</v>
       </c>
       <c r="C281" t="n">
         <v>2.272</v>
@@ -3535,7 +3535,7 @@
         <v>1118.55</v>
       </c>
       <c r="B282" t="n">
-        <v>2.312201499938965</v>
+        <v>2.230696201324463</v>
       </c>
       <c r="C282" t="n">
         <v>2.278</v>
@@ -3546,7 +3546,7 @@
         <v>1118.6</v>
       </c>
       <c r="B283" t="n">
-        <v>2.314709901809692</v>
+        <v>2.231444835662842</v>
       </c>
       <c r="C283" t="n">
         <v>2.296</v>
@@ -3557,7 +3557,7 @@
         <v>1118.65</v>
       </c>
       <c r="B284" t="n">
-        <v>2.315115451812744</v>
+        <v>2.230207681655884</v>
       </c>
       <c r="C284" t="n">
         <v>2.314</v>
@@ -3568,7 +3568,7 @@
         <v>1118.7</v>
       </c>
       <c r="B285" t="n">
-        <v>2.317652702331543</v>
+        <v>2.231270790100098</v>
       </c>
       <c r="C285" t="n">
         <v>2.336</v>
@@ -3579,7 +3579,7 @@
         <v>1118.75</v>
       </c>
       <c r="B286" t="n">
-        <v>2.315061330795288</v>
+        <v>2.227935075759888</v>
       </c>
       <c r="C286" t="n">
         <v>2.35</v>
@@ -3590,7 +3590,7 @@
         <v>1118.8</v>
       </c>
       <c r="B287" t="n">
-        <v>2.307675838470459</v>
+        <v>2.221668004989624</v>
       </c>
       <c r="C287" t="n">
         <v>2.35</v>
@@ -3601,7 +3601,7 @@
         <v>1118.85</v>
       </c>
       <c r="B288" t="n">
-        <v>2.302803993225098</v>
+        <v>2.218564033508301</v>
       </c>
       <c r="C288" t="n">
         <v>2.337</v>
@@ -3612,7 +3612,7 @@
         <v>1118.9</v>
       </c>
       <c r="B289" t="n">
-        <v>2.298668146133423</v>
+        <v>2.216449975967407</v>
       </c>
       <c r="C289" t="n">
         <v>2.317</v>
@@ -3623,7 +3623,7 @@
         <v>1118.95</v>
       </c>
       <c r="B290" t="n">
-        <v>2.298028230667114</v>
+        <v>2.217158317565918</v>
       </c>
       <c r="C290" t="n">
         <v>2.301</v>
@@ -3634,7 +3634,7 @@
         <v>1119</v>
       </c>
       <c r="B291" t="n">
-        <v>2.306828260421753</v>
+        <v>2.225349903106689</v>
       </c>
       <c r="C291" t="n">
         <v>2.289</v>
@@ -3645,7 +3645,7 @@
         <v>1119.05</v>
       </c>
       <c r="B292" t="n">
-        <v>2.310236930847168</v>
+        <v>2.227831125259399</v>
       </c>
       <c r="C292" t="n">
         <v>2.281</v>
@@ -3656,7 +3656,7 @@
         <v>1119.1</v>
       </c>
       <c r="B293" t="n">
-        <v>2.306851387023926</v>
+        <v>2.225005626678467</v>
       </c>
       <c r="C293" t="n">
         <v>2.279</v>
@@ -3667,7 +3667,7 @@
         <v>1119.15</v>
       </c>
       <c r="B294" t="n">
-        <v>2.300826072692871</v>
+        <v>2.220921516418457</v>
       </c>
       <c r="C294" t="n">
         <v>2.275</v>
@@ -3678,7 +3678,7 @@
         <v>1119.2</v>
       </c>
       <c r="B295" t="n">
-        <v>2.297975540161133</v>
+        <v>2.220117568969727</v>
       </c>
       <c r="C295" t="n">
         <v>2.27</v>
@@ -3689,7 +3689,7 @@
         <v>1119.25</v>
       </c>
       <c r="B296" t="n">
-        <v>2.298283338546753</v>
+        <v>2.221238851547241</v>
       </c>
       <c r="C296" t="n">
         <v>2.263</v>
@@ -3700,7 +3700,7 @@
         <v>1119.3</v>
       </c>
       <c r="B297" t="n">
-        <v>2.298471927642822</v>
+        <v>2.22253942489624</v>
       </c>
       <c r="C297" t="n">
         <v>2.255</v>
@@ -3711,7 +3711,7 @@
         <v>1119.35</v>
       </c>
       <c r="B298" t="n">
-        <v>2.291148900985718</v>
+        <v>2.218050718307495</v>
       </c>
       <c r="C298" t="n">
         <v>2.25</v>
@@ -3722,7 +3722,7 @@
         <v>1119.4</v>
       </c>
       <c r="B299" t="n">
-        <v>2.281354665756226</v>
+        <v>2.211988687515259</v>
       </c>
       <c r="C299" t="n">
         <v>2.244</v>
@@ -3733,7 +3733,7 @@
         <v>1119.45</v>
       </c>
       <c r="B300" t="n">
-        <v>2.280564546585083</v>
+        <v>2.212786197662354</v>
       </c>
       <c r="C300" t="n">
         <v>2.248</v>
@@ -3744,7 +3744,7 @@
         <v>1119.5</v>
       </c>
       <c r="B301" t="n">
-        <v>2.288737297058105</v>
+        <v>2.220789670944214</v>
       </c>
       <c r="C301" t="n">
         <v>2.255</v>
@@ -3755,7 +3755,7 @@
         <v>1119.55</v>
       </c>
       <c r="B302" t="n">
-        <v>2.292226552963257</v>
+        <v>2.224552869796753</v>
       </c>
       <c r="C302" t="n">
         <v>2.276</v>
@@ -3766,7 +3766,7 @@
         <v>1119.6</v>
       </c>
       <c r="B303" t="n">
-        <v>2.297879219055176</v>
+        <v>2.230260133743286</v>
       </c>
       <c r="C303" t="n">
         <v>2.302</v>
@@ -3777,7 +3777,7 @@
         <v>1119.65</v>
       </c>
       <c r="B304" t="n">
-        <v>2.301400184631348</v>
+        <v>2.234309673309326</v>
       </c>
       <c r="C304" t="n">
         <v>2.325</v>
@@ -3788,7 +3788,7 @@
         <v>1119.7</v>
       </c>
       <c r="B305" t="n">
-        <v>2.303813457489014</v>
+        <v>2.237464189529419</v>
       </c>
       <c r="C305" t="n">
         <v>2.345</v>
@@ -3799,7 +3799,7 @@
         <v>1119.75</v>
       </c>
       <c r="B306" t="n">
-        <v>2.304776430130005</v>
+        <v>2.239758491516113</v>
       </c>
       <c r="C306" t="n">
         <v>2.342</v>
@@ -3810,7 +3810,7 @@
         <v>1119.8</v>
       </c>
       <c r="B307" t="n">
-        <v>2.301084518432617</v>
+        <v>2.239012241363525</v>
       </c>
       <c r="C307" t="n">
         <v>2.338</v>
@@ -3821,7 +3821,7 @@
         <v>1119.85</v>
       </c>
       <c r="B308" t="n">
-        <v>2.300195693969727</v>
+        <v>2.240806341171265</v>
       </c>
       <c r="C308" t="n">
         <v>2.33</v>
@@ -3832,7 +3832,7 @@
         <v>1119.9</v>
       </c>
       <c r="B309" t="n">
-        <v>2.292649030685425</v>
+        <v>2.238009929656982</v>
       </c>
       <c r="C309" t="n">
         <v>2.315</v>
@@ -3843,7 +3843,7 @@
         <v>1119.95</v>
       </c>
       <c r="B310" t="n">
-        <v>2.288078784942627</v>
+        <v>2.237474679946899</v>
       </c>
       <c r="C310" t="n">
         <v>2.311</v>
@@ -3854,7 +3854,7 @@
         <v>1120</v>
       </c>
       <c r="B311" t="n">
-        <v>2.283061742782593</v>
+        <v>2.2369384765625</v>
       </c>
       <c r="C311" t="n">
         <v>2.314</v>
@@ -3865,7 +3865,7 @@
         <v>1120.05</v>
       </c>
       <c r="B312" t="n">
-        <v>2.278021097183228</v>
+        <v>2.236021995544434</v>
       </c>
       <c r="C312" t="n">
         <v>2.336</v>
@@ -3876,7 +3876,7 @@
         <v>1120.1</v>
       </c>
       <c r="B313" t="n">
-        <v>2.278289318084717</v>
+        <v>2.238566160202026</v>
       </c>
       <c r="C313" t="n">
         <v>2.36</v>
@@ -3887,7 +3887,7 @@
         <v>1120.15</v>
       </c>
       <c r="B314" t="n">
-        <v>2.289751529693604</v>
+        <v>2.249163389205933</v>
       </c>
       <c r="C314" t="n">
         <v>2.377</v>
@@ -3898,7 +3898,7 @@
         <v>1120.2</v>
       </c>
       <c r="B315" t="n">
-        <v>2.302481174468994</v>
+        <v>2.26109790802002</v>
       </c>
       <c r="C315" t="n">
         <v>2.374</v>
@@ -3909,7 +3909,7 @@
         <v>1120.25</v>
       </c>
       <c r="B316" t="n">
-        <v>2.299599885940552</v>
+        <v>2.262286424636841</v>
       </c>
       <c r="C316" t="n">
         <v>2.365</v>
